--- a/src/FichasClientes.xlsx
+++ b/src/FichasClientes.xlsx
@@ -30,7 +30,7 @@
       <b val="1"/>
       <strike val="0"/>
       <color rgb="00808080"/>
-      <sz val="20"/>
+      <sz val="18"/>
     </font>
     <font>
       <name val="Century Gothic"/>
@@ -40,15 +40,20 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DCE6F1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -56,16 +61,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <right style="thin">
+        <color rgb="00808080"/>
+      </right>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00808080"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="00808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="00808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00808080"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -431,238 +482,277 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13.2" customWidth="1" min="1" max="1"/>
-    <col width="21.6" customWidth="1" min="2" max="2"/>
-    <col width="21.6" customWidth="1" min="3" max="3"/>
-    <col width="15.6" customWidth="1" min="4" max="4"/>
-    <col width="20.4" customWidth="1" min="5" max="5"/>
-    <col width="16.8" customWidth="1" min="6" max="6"/>
-    <col width="24" customWidth="1" min="7" max="7"/>
-    <col width="21.6" customWidth="1" min="8" max="8"/>
-    <col width="49.2" customWidth="1" min="9" max="9"/>
-    <col width="39.6" customWidth="1" min="10" max="10"/>
-    <col width="18" customWidth="1" min="11" max="11"/>
-    <col width="32.4" customWidth="1" min="12" max="12"/>
-    <col width="21.6" customWidth="1" min="13" max="13"/>
-    <col width="25.2" customWidth="1" min="14" max="14"/>
-    <col width="27.6" customWidth="1" min="15" max="15"/>
-    <col width="24" customWidth="1" min="16" max="16"/>
-    <col width="12" customWidth="1" min="17" max="17"/>
-    <col width="9.6" customWidth="1" min="18" max="18"/>
-    <col width="20.4" customWidth="1" min="19" max="19"/>
+    <col width="27" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="79" customWidth="1" min="9" max="9"/>
+    <col width="166" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="19" customWidth="1" min="12" max="12"/>
+    <col width="22" customWidth="1" min="13" max="13"/>
+    <col width="18" customWidth="1" min="14" max="14"/>
+    <col width="21" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="23" customWidth="1" min="17" max="17"/>
+    <col width="20" customWidth="1" min="18" max="18"/>
+    <col width="10" customWidth="1" min="19" max="19"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="17" customWidth="1" min="21" max="21"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>CLIENTES</t>
+          <t>Datos Representante Legal</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Datos Empresa</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>Datos Financieros</t>
+        </is>
+      </c>
+      <c r="P1" s="4" t="n"/>
+      <c r="Q1" s="5" t="inlineStr">
+        <is>
+          <t>Datos de Contacto</t>
+        </is>
+      </c>
+      <c r="U1" s="3" t="inlineStr">
+        <is>
+          <t>Otros</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>Nombre(s)</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>Apellido Paterno</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>Apellido Materno</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t>RUN</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="7" t="inlineStr">
         <is>
           <t>Tipo de Empresa</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" s="6" t="inlineStr">
         <is>
           <t>Razón Social</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G2" s="6" t="inlineStr">
         <is>
           <t>Nombre de fantasía</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="H2" s="6" t="inlineStr">
         <is>
           <t>RUN</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="I2" s="6" t="inlineStr">
         <is>
           <t>Régimen Tributario</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
+      <c r="J2" s="6" t="inlineStr">
         <is>
           <t>Giro / Rubro</t>
         </is>
       </c>
-      <c r="K2" s="2" t="inlineStr">
+      <c r="K2" s="6" t="inlineStr">
         <is>
           <t>Código S.I.I.</t>
         </is>
       </c>
-      <c r="L2" s="2" t="inlineStr">
+      <c r="L2" s="6" t="inlineStr">
+        <is>
+          <t>Trabajadores</t>
+        </is>
+      </c>
+      <c r="M2" s="6" t="inlineStr">
         <is>
           <t>Tipo de contabilidad</t>
         </is>
       </c>
-      <c r="M2" s="2" t="inlineStr">
+      <c r="N2" s="6" t="inlineStr">
         <is>
           <t>Cuenta corriente</t>
         </is>
       </c>
-      <c r="N2" s="2" t="inlineStr">
+      <c r="O2" s="6" t="inlineStr">
         <is>
           <t>N° Cuenta Corriente</t>
         </is>
       </c>
-      <c r="O2" s="2" t="inlineStr">
+      <c r="P2" s="6" t="inlineStr">
+        <is>
+          <t>Deuda</t>
+        </is>
+      </c>
+      <c r="Q2" s="6" t="inlineStr">
         <is>
           <t>Correo electrónico</t>
         </is>
       </c>
-      <c r="P2" s="2" t="inlineStr">
+      <c r="R2" s="6" t="inlineStr">
         <is>
           <t>Teléfono / Celular</t>
         </is>
       </c>
-      <c r="Q2" s="2" t="inlineStr">
+      <c r="S2" s="6" t="inlineStr">
         <is>
           <t>Región</t>
         </is>
       </c>
-      <c r="R2" s="2" t="inlineStr">
+      <c r="T2" s="6" t="inlineStr">
         <is>
           <t>Comuna</t>
         </is>
       </c>
-      <c r="S2" s="2" t="inlineStr">
+      <c r="U2" s="6" t="inlineStr">
         <is>
           <t>Dirección</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="8" t="inlineStr">
         <is>
           <t>Segundo</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="8" t="inlineStr">
         <is>
           <t>Apellidos</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="8" t="inlineStr">
         <is>
           <t>Apellidotres</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>12345678-9</t>
+        </is>
+      </c>
+      <c r="E3" s="8" t="inlineStr">
+        <is>
+          <t>Persona Jurídica</t>
+        </is>
+      </c>
+      <c r="F3" s="8" t="inlineStr">
         <is>
           <t>razn Social</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" s="8" t="inlineStr">
         <is>
           <t>nuaj</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" s="8" t="inlineStr">
         <is>
           <t>12345678-9</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>12345678-9</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Persona Jurídica</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Régimen Pro PyME Transparente (14D N°8)</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Explotación De Minas Y Canteras</t>
-        </is>
-      </c>
-      <c r="K3" t="n">
-        <v>11500</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Contabilidad Simplificada</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
+      <c r="I3" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Régimen Pro PyME Transparente (14D N°8)
+Régimen Para Pequeños Contribuyentes
+</t>
+        </is>
+      </c>
+      <c r="J3" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suministro De Electricidad, Gas, Vapor Y Aire Acondicionado
+Suministro De Agua; Evacuación De Aguas Residuales, Gestión De Desechos Y Descontaminación
+Construcción
+</t>
+        </is>
+      </c>
+      <c r="K3" s="8" t="inlineStr"/>
+      <c r="L3" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="M3" s="8" t="inlineStr"/>
+      <c r="N3" s="8" t="inlineStr">
         <is>
           <t>Banco Ripley</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" s="8" t="inlineStr">
         <is>
           <t>2222222222</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="Q3" s="8" t="inlineStr">
         <is>
           <t>correo@electronico.cl</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="R3" s="8" t="inlineStr">
         <is>
           <t>+5691234567</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="S3" s="8" t="inlineStr">
         <is>
           <t>Tarapacá</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="T3" s="8" t="inlineStr">
         <is>
           <t>Pica</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="U3" s="8" t="inlineStr">
         <is>
           <t>calle real #123</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:S1"/>
+  <mergeCells count="4">
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="L1:P1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/FichasClientes.xlsx
+++ b/src/FichasClientes.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Clientes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="CLIENTES" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="$#,##0"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <name val="Calibri"/>
@@ -29,8 +31,8 @@
       <name val="Century Gothic"/>
       <b val="1"/>
       <strike val="0"/>
-      <color rgb="00808080"/>
-      <sz val="18"/>
+      <color rgb="00203764"/>
+      <sz val="16"/>
     </font>
     <font>
       <name val="Century Gothic"/>
@@ -93,7 +95,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="justify" wrapText="1"/>
@@ -102,19 +104,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -191,6 +194,35 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Clientes" displayName="Clientes" ref="A2:U299" headerRowCount="1">
+  <autoFilter ref="A2:U299"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Nombre(s)"/>
+    <tableColumn id="2" name="Apellido Paterno"/>
+    <tableColumn id="3" name="Apellido Materno"/>
+    <tableColumn id="4" name="RUN"/>
+    <tableColumn id="5" name="Tipo de Empresa"/>
+    <tableColumn id="6" name="Razón Social"/>
+    <tableColumn id="7" name="Nombre de Fantasía"/>
+    <tableColumn id="8" name="RUN / RUT"/>
+    <tableColumn id="9" name="Régimen Tributario"/>
+    <tableColumn id="10" name="Giro / Rubro"/>
+    <tableColumn id="11" name="Código S.I.I."/>
+    <tableColumn id="12" name="Trabajadores"/>
+    <tableColumn id="13" name="Tipo de Contabilidad"/>
+    <tableColumn id="14" name="Cuenta Corriente"/>
+    <tableColumn id="15" name="N° Cuenta Corriente"/>
+    <tableColumn id="16" name="A Pagar"/>
+    <tableColumn id="17" name="Correo Electrónico"/>
+    <tableColumn id="18" name="Teléfono / Celular"/>
+    <tableColumn id="19" name="Región"/>
+    <tableColumn id="20" name="Comuna"/>
+    <tableColumn id="21" name="Dirección"/>
+  </tableColumns>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -506,7 +538,7 @@
     <col width="30" customWidth="1" min="13" max="13"/>
     <col width="27" customWidth="1" min="14" max="14"/>
     <col width="21" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
     <col width="35" customWidth="1" min="17" max="17"/>
     <col width="20" customWidth="1" min="18" max="18"/>
     <col width="39" customWidth="1" min="19" max="19"/>
@@ -517,134 +549,134 @@
     <row r="1" ht="24" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Datos Representante Legal</t>
+          <t>DATOS REPRESENTANTE LEGAL</t>
         </is>
       </c>
       <c r="E1" s="2" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Datos Empresa</t>
+          <t>DATOS EMPRESA</t>
         </is>
       </c>
       <c r="L1" s="3" t="inlineStr">
         <is>
-          <t>Datos Financieros</t>
+          <t>DATOS FINANCIEROS</t>
         </is>
       </c>
       <c r="P1" s="4" t="n"/>
-      <c r="Q1" s="5" t="inlineStr">
-        <is>
-          <t>Datos de Contacto</t>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>DATOS DE CONTACTO</t>
         </is>
       </c>
       <c r="U1" s="3" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>OTROS</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>Nombre(s)</t>
         </is>
       </c>
-      <c r="B2" s="6" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>Apellido Paterno</t>
         </is>
       </c>
-      <c r="C2" s="6" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Apellido Materno</t>
         </is>
       </c>
-      <c r="D2" s="6" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>RUN</t>
         </is>
       </c>
-      <c r="E2" s="7" t="inlineStr">
+      <c r="E2" s="6" t="inlineStr">
         <is>
           <t>Tipo de Empresa</t>
         </is>
       </c>
-      <c r="F2" s="6" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>Razón Social</t>
         </is>
       </c>
-      <c r="G2" s="6" t="inlineStr">
-        <is>
-          <t>Nombre de fantasía</t>
-        </is>
-      </c>
-      <c r="H2" s="6" t="inlineStr">
-        <is>
-          <t>RUN</t>
-        </is>
-      </c>
-      <c r="I2" s="6" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
+        <is>
+          <t>Nombre de Fantasía</t>
+        </is>
+      </c>
+      <c r="H2" s="5" t="inlineStr">
+        <is>
+          <t>RUN / RUT</t>
+        </is>
+      </c>
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>Régimen Tributario</t>
         </is>
       </c>
-      <c r="J2" s="6" t="inlineStr">
+      <c r="J2" s="5" t="inlineStr">
         <is>
           <t>Giro / Rubro</t>
         </is>
       </c>
-      <c r="K2" s="6" t="inlineStr">
+      <c r="K2" s="5" t="inlineStr">
         <is>
           <t>Código S.I.I.</t>
         </is>
       </c>
-      <c r="L2" s="6" t="inlineStr">
+      <c r="L2" s="5" t="inlineStr">
         <is>
           <t>Trabajadores</t>
         </is>
       </c>
-      <c r="M2" s="6" t="inlineStr">
-        <is>
-          <t>Tipo de contabilidad</t>
-        </is>
-      </c>
-      <c r="N2" s="6" t="inlineStr">
-        <is>
-          <t>Cuenta corriente</t>
-        </is>
-      </c>
-      <c r="O2" s="6" t="inlineStr">
+      <c r="M2" s="5" t="inlineStr">
+        <is>
+          <t>Tipo de Contabilidad</t>
+        </is>
+      </c>
+      <c r="N2" s="5" t="inlineStr">
+        <is>
+          <t>Cuenta Corriente</t>
+        </is>
+      </c>
+      <c r="O2" s="5" t="inlineStr">
         <is>
           <t>N° Cuenta Corriente</t>
         </is>
       </c>
-      <c r="P2" s="6" t="inlineStr">
-        <is>
-          <t>Deuda</t>
-        </is>
-      </c>
-      <c r="Q2" s="6" t="inlineStr">
-        <is>
-          <t>Correo electrónico</t>
-        </is>
-      </c>
-      <c r="R2" s="6" t="inlineStr">
+      <c r="P2" s="7" t="inlineStr">
+        <is>
+          <t>A Pagar</t>
+        </is>
+      </c>
+      <c r="Q2" s="5" t="inlineStr">
+        <is>
+          <t>Correo Electrónico</t>
+        </is>
+      </c>
+      <c r="R2" s="5" t="inlineStr">
         <is>
           <t>Teléfono / Celular</t>
         </is>
       </c>
-      <c r="S2" s="6" t="inlineStr">
+      <c r="S2" s="5" t="inlineStr">
         <is>
           <t>Región</t>
         </is>
       </c>
-      <c r="T2" s="6" t="inlineStr">
+      <c r="T2" s="5" t="inlineStr">
         <is>
           <t>Comuna</t>
         </is>
       </c>
-      <c r="U2" s="6" t="inlineStr">
+      <c r="U2" s="5" t="inlineStr">
         <is>
           <t>Dirección</t>
         </is>
@@ -728,6 +760,9 @@
           <t>2222222222</t>
         </is>
       </c>
+      <c r="P3" s="9" t="n">
+        <v>254645653</v>
+      </c>
       <c r="Q3" s="8" t="inlineStr">
         <is>
           <t>correo@electronico.cl</t>
@@ -833,6 +868,9 @@
           <t>200055921</t>
         </is>
       </c>
+      <c r="P4" s="9" t="n">
+        <v>34</v>
+      </c>
       <c r="Q4" s="8" t="inlineStr">
         <is>
           <t>lcisson4@nyu.edu</t>
@@ -939,6 +977,9 @@
           <t>665726819</t>
         </is>
       </c>
+      <c r="P5" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q5" s="8" t="inlineStr">
         <is>
           <t>ttratton5@w3.org</t>
@@ -1044,6 +1085,9 @@
           <t>659162364</t>
         </is>
       </c>
+      <c r="P6" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q6" s="8" t="inlineStr">
         <is>
           <t>kpreator6@google.de</t>
@@ -1143,6 +1187,9 @@
           <t>049396759</t>
         </is>
       </c>
+      <c r="P7" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q7" s="8" t="inlineStr">
         <is>
           <t>ivolant7@oaic.gov.au</t>
@@ -1242,6 +1289,9 @@
           <t>347644283</t>
         </is>
       </c>
+      <c r="P8" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q8" s="8" t="inlineStr">
         <is>
           <t>aarpe8@ycombinator.com</t>
@@ -1346,6 +1396,9 @@
           <t>086110462</t>
         </is>
       </c>
+      <c r="P9" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q9" s="8" t="inlineStr">
         <is>
           <t>wgovan9@artisteer.com</t>
@@ -1450,6 +1503,9 @@
           <t>686229047</t>
         </is>
       </c>
+      <c r="P10" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q10" s="8" t="inlineStr">
         <is>
           <t>ubeauvaisa@upenn.edu</t>
@@ -1554,6 +1610,9 @@
           <t>662556220</t>
         </is>
       </c>
+      <c r="P11" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q11" s="8" t="inlineStr">
         <is>
           <t>mmckintyb@icio.us</t>
@@ -1658,6 +1717,9 @@
           <t>267489643</t>
         </is>
       </c>
+      <c r="P12" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q12" s="8" t="inlineStr">
         <is>
           <t>pairetonc@toplist.cz</t>
@@ -1762,6 +1824,9 @@
           <t>742089854</t>
         </is>
       </c>
+      <c r="P13" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q13" s="8" t="inlineStr">
         <is>
           <t>gjikovskyd@zimbio.com</t>
@@ -1866,6 +1931,9 @@
           <t>617207590</t>
         </is>
       </c>
+      <c r="P14" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q14" s="8" t="inlineStr">
         <is>
           <t>sjeanone@bizjournals.com</t>
@@ -1970,6 +2038,9 @@
           <t>657646078</t>
         </is>
       </c>
+      <c r="P15" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q15" s="8" t="inlineStr">
         <is>
           <t>ftipplerf@livejournal.com</t>
@@ -2074,6 +2145,9 @@
           <t>891097875</t>
         </is>
       </c>
+      <c r="P16" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q16" s="8" t="inlineStr">
         <is>
           <t>mtooherg@nasa.gov</t>
@@ -2178,6 +2252,9 @@
           <t>159022802</t>
         </is>
       </c>
+      <c r="P17" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q17" s="8" t="inlineStr">
         <is>
           <t>nnewickh@plala.or.jp</t>
@@ -2282,6 +2359,9 @@
           <t>473426723</t>
         </is>
       </c>
+      <c r="P18" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q18" s="8" t="inlineStr">
         <is>
           <t>dtomkissi@photobucket.com</t>
@@ -2386,6 +2466,9 @@
           <t>804252600</t>
         </is>
       </c>
+      <c r="P19" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q19" s="8" t="inlineStr">
         <is>
           <t>lgoucherj@stumbleupon.com</t>
@@ -2490,6 +2573,9 @@
           <t>174984471</t>
         </is>
       </c>
+      <c r="P20" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q20" s="8" t="inlineStr">
         <is>
           <t>lhuertak@ask.com</t>
@@ -2594,6 +2680,9 @@
           <t>845706769</t>
         </is>
       </c>
+      <c r="P21" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q21" s="8" t="inlineStr">
         <is>
           <t>rsailel@va.gov</t>
@@ -2698,6 +2787,9 @@
           <t>538207808</t>
         </is>
       </c>
+      <c r="P22" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q22" s="8" t="inlineStr">
         <is>
           <t>fcordem@blinklist.com</t>
@@ -2802,6 +2894,9 @@
           <t>268406418</t>
         </is>
       </c>
+      <c r="P23" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q23" s="8" t="inlineStr">
         <is>
           <t>ekinvern@123-reg.co.uk</t>
@@ -2906,6 +3001,9 @@
           <t>194335702</t>
         </is>
       </c>
+      <c r="P24" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q24" s="8" t="inlineStr">
         <is>
           <t>pboldto@businesswire.com</t>
@@ -3010,6 +3108,9 @@
           <t>948135973</t>
         </is>
       </c>
+      <c r="P25" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q25" s="8" t="inlineStr">
         <is>
           <t>lkemblep@ask.com</t>
@@ -3114,6 +3215,9 @@
           <t>244494593</t>
         </is>
       </c>
+      <c r="P26" s="9" t="n">
+        <v>29</v>
+      </c>
       <c r="Q26" s="8" t="inlineStr">
         <is>
           <t>lwakehamq@reverbnation.com</t>
@@ -3218,6 +3322,9 @@
           <t>248480618</t>
         </is>
       </c>
+      <c r="P27" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q27" s="8" t="inlineStr">
         <is>
           <t>wleinthallr@printfriendly.com</t>
@@ -3322,6 +3429,9 @@
           <t>669097889</t>
         </is>
       </c>
+      <c r="P28" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q28" s="8" t="inlineStr">
         <is>
           <t>cmalins@constantcontact.com</t>
@@ -3426,6 +3536,9 @@
           <t>979653388</t>
         </is>
       </c>
+      <c r="P29" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q29" s="8" t="inlineStr">
         <is>
           <t>kmccullent@mail.ru</t>
@@ -3530,6 +3643,9 @@
           <t>663229577</t>
         </is>
       </c>
+      <c r="P30" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q30" s="8" t="inlineStr">
         <is>
           <t>tcullefordu@slashdot.org</t>
@@ -3634,6 +3750,9 @@
           <t>529515151</t>
         </is>
       </c>
+      <c r="P31" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q31" s="8" t="inlineStr">
         <is>
           <t>ihallifaxv@oracle.com</t>
@@ -3738,6 +3857,9 @@
           <t>668565566</t>
         </is>
       </c>
+      <c r="P32" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q32" s="8" t="inlineStr">
         <is>
           <t>fbenzw@multiply.com</t>
@@ -3842,6 +3964,9 @@
           <t>483405343</t>
         </is>
       </c>
+      <c r="P33" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q33" s="8" t="inlineStr">
         <is>
           <t>dmacfaydenx@prweb.com</t>
@@ -3946,6 +4071,9 @@
           <t>136791874</t>
         </is>
       </c>
+      <c r="P34" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q34" s="8" t="inlineStr">
         <is>
           <t>tcapelingy@deviantart.com</t>
@@ -4050,6 +4178,9 @@
           <t>676168626</t>
         </is>
       </c>
+      <c r="P35" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q35" s="8" t="inlineStr">
         <is>
           <t>zcrippinz@samsung.com</t>
@@ -4154,6 +4285,9 @@
           <t>205848882</t>
         </is>
       </c>
+      <c r="P36" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q36" s="8" t="inlineStr">
         <is>
           <t>jstearley10@cdc.gov</t>
@@ -4258,6 +4392,9 @@
           <t>710088014</t>
         </is>
       </c>
+      <c r="P37" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q37" s="8" t="inlineStr">
         <is>
           <t>lwinsom11@1688.com</t>
@@ -4362,6 +4499,9 @@
           <t>973054375</t>
         </is>
       </c>
+      <c r="P38" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q38" s="8" t="inlineStr">
         <is>
           <t>istedson12@pagesperso-orange.fr</t>
@@ -4466,6 +4606,9 @@
           <t>705977038</t>
         </is>
       </c>
+      <c r="P39" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q39" s="8" t="inlineStr">
         <is>
           <t>ahorsfield13@foxnews.com</t>
@@ -4570,6 +4713,9 @@
           <t>486089665</t>
         </is>
       </c>
+      <c r="P40" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q40" s="8" t="inlineStr">
         <is>
           <t>eescalera14@netvibes.com</t>
@@ -4674,6 +4820,9 @@
           <t>976113181</t>
         </is>
       </c>
+      <c r="P41" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q41" s="8" t="inlineStr">
         <is>
           <t>ahallin15@squidoo.com</t>
@@ -4778,6 +4927,9 @@
           <t>576832564</t>
         </is>
       </c>
+      <c r="P42" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q42" s="8" t="inlineStr">
         <is>
           <t>cleeke16@wikispaces.com</t>
@@ -4882,6 +5034,9 @@
           <t>317000039</t>
         </is>
       </c>
+      <c r="P43" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q43" s="8" t="inlineStr">
         <is>
           <t>ctimcke17@myspace.com</t>
@@ -4986,6 +5141,9 @@
           <t>709511107</t>
         </is>
       </c>
+      <c r="P44" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q44" s="8" t="inlineStr">
         <is>
           <t>rsapir18@marriott.com</t>
@@ -5090,6 +5248,9 @@
           <t>754390305</t>
         </is>
       </c>
+      <c r="P45" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q45" s="8" t="inlineStr">
         <is>
           <t>acornewell19@example.com</t>
@@ -5194,6 +5355,9 @@
           <t>804621004</t>
         </is>
       </c>
+      <c r="P46" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q46" s="8" t="inlineStr">
         <is>
           <t>rgroome1a@statcounter.com</t>
@@ -5298,6 +5462,9 @@
           <t>500589720</t>
         </is>
       </c>
+      <c r="P47" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q47" s="8" t="inlineStr">
         <is>
           <t>achieze1b@google.nl</t>
@@ -5402,6 +5569,9 @@
           <t>208781711</t>
         </is>
       </c>
+      <c r="P48" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q48" s="8" t="inlineStr">
         <is>
           <t>dduberry1c@cisco.com</t>
@@ -5506,6 +5676,9 @@
           <t>944759975</t>
         </is>
       </c>
+      <c r="P49" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q49" s="8" t="inlineStr">
         <is>
           <t>acalven1d@feedburner.com</t>
@@ -5610,6 +5783,9 @@
           <t>593199153</t>
         </is>
       </c>
+      <c r="P50" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q50" s="8" t="inlineStr">
         <is>
           <t>kdenziloe1e@examiner.com</t>
@@ -5714,6 +5890,9 @@
           <t>513328687</t>
         </is>
       </c>
+      <c r="P51" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q51" s="8" t="inlineStr">
         <is>
           <t>rnisius1f@marketwatch.com</t>
@@ -5818,6 +5997,9 @@
           <t>799095171</t>
         </is>
       </c>
+      <c r="P52" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q52" s="8" t="inlineStr">
         <is>
           <t>hspenley1g@vinaora.com</t>
@@ -5923,6 +6105,9 @@
           <t>503440176</t>
         </is>
       </c>
+      <c r="P53" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q53" s="8" t="inlineStr">
         <is>
           <t>gvernall1h@harvard.edu</t>
@@ -6027,6 +6212,9 @@
           <t>823295039</t>
         </is>
       </c>
+      <c r="P54" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q54" s="8" t="inlineStr">
         <is>
           <t>rcline1i@xinhuanet.com</t>
@@ -6131,6 +6319,9 @@
           <t>347599741</t>
         </is>
       </c>
+      <c r="P55" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q55" s="8" t="inlineStr">
         <is>
           <t>cmardoll1j@topsy.com</t>
@@ -6236,6 +6427,9 @@
           <t>313147430</t>
         </is>
       </c>
+      <c r="P56" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q56" s="8" t="inlineStr">
         <is>
           <t>esherwell1k@usnews.com</t>
@@ -6340,6 +6534,9 @@
           <t>009037447</t>
         </is>
       </c>
+      <c r="P57" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q57" s="8" t="inlineStr">
         <is>
           <t>rvassman1l@netvibes.com</t>
@@ -6444,6 +6641,9 @@
           <t>066817685</t>
         </is>
       </c>
+      <c r="P58" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q58" s="8" t="inlineStr">
         <is>
           <t>acurbishley1m@bbb.org</t>
@@ -6548,6 +6748,9 @@
           <t>719950523</t>
         </is>
       </c>
+      <c r="P59" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q59" s="8" t="inlineStr">
         <is>
           <t>habelwhite1n@cbsnews.com</t>
@@ -6652,6 +6855,9 @@
           <t>043687893</t>
         </is>
       </c>
+      <c r="P60" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q60" s="8" t="inlineStr">
         <is>
           <t>dburghill1o@over-blog.com</t>
@@ -6756,6 +6962,9 @@
           <t>577747880</t>
         </is>
       </c>
+      <c r="P61" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q61" s="8" t="inlineStr">
         <is>
           <t>wkneeland1p@ucla.edu</t>
@@ -6860,6 +7069,9 @@
           <t>031922346</t>
         </is>
       </c>
+      <c r="P62" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q62" s="8" t="inlineStr">
         <is>
           <t>vcarrigan1q@t.co</t>
@@ -6964,6 +7176,9 @@
           <t>819137377</t>
         </is>
       </c>
+      <c r="P63" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q63" s="8" t="inlineStr">
         <is>
           <t>mczajkowska1r@sogou.com</t>
@@ -7068,6 +7283,9 @@
           <t>751677895</t>
         </is>
       </c>
+      <c r="P64" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q64" s="8" t="inlineStr">
         <is>
           <t>tdugan1t@weebly.com</t>
@@ -7172,6 +7390,9 @@
           <t>904168385</t>
         </is>
       </c>
+      <c r="P65" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q65" s="8" t="inlineStr">
         <is>
           <t>dmcilmorie1u@upenn.edu</t>
@@ -7276,6 +7497,9 @@
           <t>644388050</t>
         </is>
       </c>
+      <c r="P66" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q66" s="8" t="inlineStr">
         <is>
           <t>tbeetham1v@buzzfeed.com</t>
@@ -7380,6 +7604,9 @@
           <t>263685309</t>
         </is>
       </c>
+      <c r="P67" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q67" s="8" t="inlineStr">
         <is>
           <t>tbearham1w@comsenz.com</t>
@@ -7484,6 +7711,9 @@
           <t>749709505</t>
         </is>
       </c>
+      <c r="P68" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q68" s="8" t="inlineStr">
         <is>
           <t>rrugge1x@t-online.de</t>
@@ -7588,6 +7818,9 @@
           <t>655766981</t>
         </is>
       </c>
+      <c r="P69" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q69" s="8" t="inlineStr">
         <is>
           <t>kspataro1y@jiathis.com</t>
@@ -7692,6 +7925,9 @@
           <t>161754957</t>
         </is>
       </c>
+      <c r="P70" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q70" s="8" t="inlineStr">
         <is>
           <t>tsproson1z@mit.edu</t>
@@ -7796,6 +8032,9 @@
           <t>552788858</t>
         </is>
       </c>
+      <c r="P71" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q71" s="8" t="inlineStr">
         <is>
           <t>rkirmond20@wikispaces.com</t>
@@ -7900,6 +8139,9 @@
           <t>326622214</t>
         </is>
       </c>
+      <c r="P72" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q72" s="8" t="inlineStr">
         <is>
           <t>glicquorish21@trellian.com</t>
@@ -8004,6 +8246,9 @@
           <t>672785986</t>
         </is>
       </c>
+      <c r="P73" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q73" s="8" t="inlineStr">
         <is>
           <t>cwestcarr22@gov.uk</t>
@@ -8108,6 +8353,9 @@
           <t>651752041</t>
         </is>
       </c>
+      <c r="P74" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q74" s="8" t="inlineStr">
         <is>
           <t>dmeneghi23@joomla.org</t>
@@ -8212,6 +8460,9 @@
           <t>259629059</t>
         </is>
       </c>
+      <c r="P75" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q75" s="8" t="inlineStr">
         <is>
           <t>mdelafield24@symantec.com</t>
@@ -8316,6 +8567,9 @@
           <t>589432265</t>
         </is>
       </c>
+      <c r="P76" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q76" s="8" t="inlineStr">
         <is>
           <t>tbroseman25@sakura.ne.jp</t>
@@ -8420,6 +8674,9 @@
           <t>111454290</t>
         </is>
       </c>
+      <c r="P77" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q77" s="8" t="inlineStr">
         <is>
           <t>vrankcom26@bing.com</t>
@@ -8524,6 +8781,9 @@
           <t>271962870</t>
         </is>
       </c>
+      <c r="P78" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q78" s="8" t="inlineStr">
         <is>
           <t>rclausner27@techcrunch.com</t>
@@ -8628,6 +8888,9 @@
           <t>757599525</t>
         </is>
       </c>
+      <c r="P79" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q79" s="8" t="inlineStr">
         <is>
           <t>fmaryet28@dagondesign.com</t>
@@ -8732,6 +8995,9 @@
           <t>872383795</t>
         </is>
       </c>
+      <c r="P80" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q80" s="8" t="inlineStr">
         <is>
           <t>btwelvetree29@paypal.com</t>
@@ -8836,6 +9102,9 @@
           <t>374165375</t>
         </is>
       </c>
+      <c r="P81" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q81" s="8" t="inlineStr">
         <is>
           <t>bcarrier2a@wikimedia.org</t>
@@ -8940,6 +9209,9 @@
           <t>859225347</t>
         </is>
       </c>
+      <c r="P82" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q82" s="8" t="inlineStr">
         <is>
           <t>ebaitson2b@hubpages.com</t>
@@ -9044,6 +9316,9 @@
           <t>101801639</t>
         </is>
       </c>
+      <c r="P83" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q83" s="8" t="inlineStr">
         <is>
           <t>jpemble2c@gizmodo.com</t>
@@ -9148,6 +9423,9 @@
           <t>915063990</t>
         </is>
       </c>
+      <c r="P84" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q84" s="8" t="inlineStr">
         <is>
           <t>lpilling2d@tinyurl.com</t>
@@ -9252,6 +9530,9 @@
           <t>240739437</t>
         </is>
       </c>
+      <c r="P85" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q85" s="8" t="inlineStr">
         <is>
           <t>mdurtnell2e@sourceforge.net</t>
@@ -9356,6 +9637,9 @@
           <t>907180891</t>
         </is>
       </c>
+      <c r="P86" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q86" s="8" t="inlineStr">
         <is>
           <t>khagston2f@senate.gov</t>
@@ -9460,6 +9744,9 @@
           <t>575694887</t>
         </is>
       </c>
+      <c r="P87" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q87" s="8" t="inlineStr">
         <is>
           <t>bmarsie2g@cnn.com</t>
@@ -9564,6 +9851,9 @@
           <t>164095681</t>
         </is>
       </c>
+      <c r="P88" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q88" s="8" t="inlineStr">
         <is>
           <t>hnickels2h@nationalgeographic.com</t>
@@ -9668,6 +9958,9 @@
           <t>427679676</t>
         </is>
       </c>
+      <c r="P89" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q89" s="8" t="inlineStr">
         <is>
           <t>cdabnor2i@hugedomains.com</t>
@@ -9772,6 +10065,9 @@
           <t>655774297</t>
         </is>
       </c>
+      <c r="P90" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q90" s="8" t="inlineStr">
         <is>
           <t>klittle2j@aol.com</t>
@@ -9876,6 +10172,9 @@
           <t>627707789</t>
         </is>
       </c>
+      <c r="P91" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q91" s="8" t="inlineStr">
         <is>
           <t>bgarmans2k@mac.com</t>
@@ -9980,6 +10279,9 @@
           <t>157671330</t>
         </is>
       </c>
+      <c r="P92" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q92" s="8" t="inlineStr">
         <is>
           <t>qscarlet2l@live.com</t>
@@ -10084,6 +10386,9 @@
           <t>150223866</t>
         </is>
       </c>
+      <c r="P93" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q93" s="8" t="inlineStr">
         <is>
           <t>ggidley2m@sun.com</t>
@@ -10188,6 +10493,9 @@
           <t>870034108</t>
         </is>
       </c>
+      <c r="P94" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q94" s="8" t="inlineStr">
         <is>
           <t>rbilling2n@timesonline.co.uk</t>
@@ -10292,6 +10600,9 @@
           <t>677203639</t>
         </is>
       </c>
+      <c r="P95" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q95" s="8" t="inlineStr">
         <is>
           <t>gtoal2o@macromedia.com</t>
@@ -10396,6 +10707,9 @@
           <t>399754030</t>
         </is>
       </c>
+      <c r="P96" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q96" s="8" t="inlineStr">
         <is>
           <t>wkenningham2p@shinystat.com</t>
@@ -10500,6 +10814,9 @@
           <t>979846883</t>
         </is>
       </c>
+      <c r="P97" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q97" s="8" t="inlineStr">
         <is>
           <t>phasloch2q@github.com</t>
@@ -10604,6 +10921,9 @@
           <t>474696999</t>
         </is>
       </c>
+      <c r="P98" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q98" s="8" t="inlineStr">
         <is>
           <t>kpiddock2r@princeton.edu</t>
@@ -10708,6 +11028,9 @@
           <t>760320514</t>
         </is>
       </c>
+      <c r="P99" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q99" s="8" t="inlineStr">
         <is>
           <t>rbelfelt2s@pbs.org</t>
@@ -10812,6 +11135,9 @@
           <t>816831436</t>
         </is>
       </c>
+      <c r="P100" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q100" s="8" t="inlineStr">
         <is>
           <t>tnoden2t@delicious.com</t>
@@ -10916,6 +11242,9 @@
           <t>134902874</t>
         </is>
       </c>
+      <c r="P101" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q101" s="8" t="inlineStr">
         <is>
           <t>rvanvelden2u@gizmodo.com</t>
@@ -11020,6 +11349,9 @@
           <t>001622281</t>
         </is>
       </c>
+      <c r="P102" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q102" s="8" t="inlineStr">
         <is>
           <t>tbonfield2v@toplist.cz</t>
@@ -11126,6 +11458,9 @@
           <t>485461800</t>
         </is>
       </c>
+      <c r="P103" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q103" s="8" t="inlineStr">
         <is>
           <t>fvicker2w@w3.org</t>
@@ -11230,6 +11565,9 @@
           <t>170904548</t>
         </is>
       </c>
+      <c r="P104" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q104" s="8" t="inlineStr">
         <is>
           <t>tvannini2x@cyberchimps.com</t>
@@ -11334,6 +11672,9 @@
           <t>428519033</t>
         </is>
       </c>
+      <c r="P105" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q105" s="8" t="inlineStr">
         <is>
           <t>kmaryan2y@forbes.com</t>
@@ -11438,6 +11779,9 @@
           <t>481085842</t>
         </is>
       </c>
+      <c r="P106" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q106" s="8" t="inlineStr">
         <is>
           <t>cauld2z@jiathis.com</t>
@@ -11542,6 +11886,9 @@
           <t>168908034</t>
         </is>
       </c>
+      <c r="P107" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q107" s="8" t="inlineStr">
         <is>
           <t>igwillim30@ucsd.edu</t>
@@ -11646,6 +11993,9 @@
           <t>142444682</t>
         </is>
       </c>
+      <c r="P108" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q108" s="8" t="inlineStr">
         <is>
           <t>jteliga31@zdnet.com</t>
@@ -11750,6 +12100,9 @@
           <t>289826006</t>
         </is>
       </c>
+      <c r="P109" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q109" s="8" t="inlineStr">
         <is>
           <t>rmissenden32@mozilla.org</t>
@@ -11854,6 +12207,9 @@
           <t>424997018</t>
         </is>
       </c>
+      <c r="P110" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q110" s="8" t="inlineStr">
         <is>
           <t>rgenge33@cpanel.net</t>
@@ -11958,6 +12314,9 @@
           <t>386869884</t>
         </is>
       </c>
+      <c r="P111" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q111" s="8" t="inlineStr">
         <is>
           <t>jmckeachie34@geocities.com</t>
@@ -12062,6 +12421,9 @@
           <t>333487558</t>
         </is>
       </c>
+      <c r="P112" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q112" s="8" t="inlineStr">
         <is>
           <t>bhumber35@who.int</t>
@@ -12166,6 +12528,9 @@
           <t>923857430</t>
         </is>
       </c>
+      <c r="P113" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q113" s="8" t="inlineStr">
         <is>
           <t>cblunsden36@baidu.com</t>
@@ -12270,6 +12635,9 @@
           <t>248971246</t>
         </is>
       </c>
+      <c r="P114" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q114" s="8" t="inlineStr">
         <is>
           <t>lhalhead37@wikispaces.com</t>
@@ -12374,6 +12742,9 @@
           <t>056134092</t>
         </is>
       </c>
+      <c r="P115" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q115" s="8" t="inlineStr">
         <is>
           <t>dmartine38@wired.com</t>
@@ -12478,6 +12849,9 @@
           <t>012007376</t>
         </is>
       </c>
+      <c r="P116" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q116" s="8" t="inlineStr">
         <is>
           <t>jmcgucken39@youtube.com</t>
@@ -12582,6 +12956,9 @@
           <t>243216182</t>
         </is>
       </c>
+      <c r="P117" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q117" s="8" t="inlineStr">
         <is>
           <t>gstrase3a@latimes.com</t>
@@ -12686,6 +13063,9 @@
           <t>699959253</t>
         </is>
       </c>
+      <c r="P118" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q118" s="8" t="inlineStr">
         <is>
           <t>jvalti3b@discovery.com</t>
@@ -12790,6 +13170,9 @@
           <t>752218567</t>
         </is>
       </c>
+      <c r="P119" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q119" s="8" t="inlineStr">
         <is>
           <t>hemanuelov3c@discuz.net</t>
@@ -12894,6 +13277,9 @@
           <t>025040882</t>
         </is>
       </c>
+      <c r="P120" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q120" s="8" t="inlineStr">
         <is>
           <t>sfarley3d@multiply.com</t>
@@ -12998,6 +13384,9 @@
           <t>792864707</t>
         </is>
       </c>
+      <c r="P121" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q121" s="8" t="inlineStr">
         <is>
           <t>dorring3e@prweb.com</t>
@@ -13102,6 +13491,9 @@
           <t>750109042</t>
         </is>
       </c>
+      <c r="P122" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q122" s="8" t="inlineStr">
         <is>
           <t>mgedling3f@dagondesign.com</t>
@@ -13206,6 +13598,9 @@
           <t>344188548</t>
         </is>
       </c>
+      <c r="P123" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q123" s="8" t="inlineStr">
         <is>
           <t>mdorsay3g@ovh.net</t>
@@ -13310,6 +13705,9 @@
           <t>238929301</t>
         </is>
       </c>
+      <c r="P124" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q124" s="8" t="inlineStr">
         <is>
           <t>tharrhy3h@xing.com</t>
@@ -13414,6 +13812,9 @@
           <t>963735622</t>
         </is>
       </c>
+      <c r="P125" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q125" s="8" t="inlineStr">
         <is>
           <t>icoultar3i@cargocollective.com</t>
@@ -13518,6 +13919,9 @@
           <t>116688159</t>
         </is>
       </c>
+      <c r="P126" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q126" s="8" t="inlineStr">
         <is>
           <t>rgent3j@about.me</t>
@@ -13622,6 +14026,9 @@
           <t>807924273</t>
         </is>
       </c>
+      <c r="P127" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q127" s="8" t="inlineStr">
         <is>
           <t>dtoffoletto3k@parallels.com</t>
@@ -13726,6 +14133,9 @@
           <t>566010375</t>
         </is>
       </c>
+      <c r="P128" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q128" s="8" t="inlineStr">
         <is>
           <t>stomkin3l@pcworld.com</t>
@@ -13830,6 +14240,9 @@
           <t>564888832</t>
         </is>
       </c>
+      <c r="P129" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q129" s="8" t="inlineStr">
         <is>
           <t>htamas3m@amazonaws.com</t>
@@ -13934,6 +14347,9 @@
           <t>777760683</t>
         </is>
       </c>
+      <c r="P130" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q130" s="8" t="inlineStr">
         <is>
           <t>bstrangwood3n@yellowbook.com</t>
@@ -14038,6 +14454,9 @@
           <t>158390159</t>
         </is>
       </c>
+      <c r="P131" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q131" s="8" t="inlineStr">
         <is>
           <t>wpatnelli3o@chron.com</t>
@@ -14142,6 +14561,9 @@
           <t>092172890</t>
         </is>
       </c>
+      <c r="P132" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q132" s="8" t="inlineStr">
         <is>
           <t>ajovic3p@shutterfly.com</t>
@@ -14246,6 +14668,9 @@
           <t>088036046</t>
         </is>
       </c>
+      <c r="P133" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q133" s="8" t="inlineStr">
         <is>
           <t>obaison3q@over-blog.com</t>
@@ -14350,6 +14775,9 @@
           <t>429455795</t>
         </is>
       </c>
+      <c r="P134" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q134" s="8" t="inlineStr">
         <is>
           <t>gwoodfield3r@prweb.com</t>
@@ -14454,6 +14882,9 @@
           <t>326814972</t>
         </is>
       </c>
+      <c r="P135" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q135" s="8" t="inlineStr">
         <is>
           <t>amontez3s@skyrock.com</t>
@@ -14558,6 +14989,9 @@
           <t>831747491</t>
         </is>
       </c>
+      <c r="P136" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q136" s="8" t="inlineStr">
         <is>
           <t>cnoseworthy3t@g.co</t>
@@ -14662,6 +15096,9 @@
           <t>340778989</t>
         </is>
       </c>
+      <c r="P137" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q137" s="8" t="inlineStr">
         <is>
           <t>dgaish3u@wsj.com</t>
@@ -14766,6 +15203,9 @@
           <t>448583364</t>
         </is>
       </c>
+      <c r="P138" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q138" s="8" t="inlineStr">
         <is>
           <t>nkynton3v@technorati.com</t>
@@ -14870,6 +15310,9 @@
           <t>494197479</t>
         </is>
       </c>
+      <c r="P139" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q139" s="8" t="inlineStr">
         <is>
           <t>dmaclaig3w@cbc.ca</t>
@@ -14974,6 +15417,9 @@
           <t>110270037</t>
         </is>
       </c>
+      <c r="P140" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q140" s="8" t="inlineStr">
         <is>
           <t>lgenicke3x@slate.com</t>
@@ -15078,6 +15524,9 @@
           <t>164980754</t>
         </is>
       </c>
+      <c r="P141" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q141" s="8" t="inlineStr">
         <is>
           <t>bjakubowicz3y@addthis.com</t>
@@ -15182,6 +15631,9 @@
           <t>399687978</t>
         </is>
       </c>
+      <c r="P142" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q142" s="8" t="inlineStr">
         <is>
           <t>tingman3z@wikispaces.com</t>
@@ -15286,6 +15738,9 @@
           <t>257135587</t>
         </is>
       </c>
+      <c r="P143" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q143" s="8" t="inlineStr">
         <is>
           <t>ochasson40@amazon.co.jp</t>
@@ -15390,6 +15845,9 @@
           <t>854490975</t>
         </is>
       </c>
+      <c r="P144" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q144" s="8" t="inlineStr">
         <is>
           <t>cmousdall41@mapquest.com</t>
@@ -15494,6 +15952,9 @@
           <t>261936633</t>
         </is>
       </c>
+      <c r="P145" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q145" s="8" t="inlineStr">
         <is>
           <t>smorphey42@phoca.cz</t>
@@ -15598,6 +16059,9 @@
           <t>194598612</t>
         </is>
       </c>
+      <c r="P146" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q146" s="8" t="inlineStr">
         <is>
           <t>dbrandel43@virginia.edu</t>
@@ -15702,6 +16166,9 @@
           <t>016660807</t>
         </is>
       </c>
+      <c r="P147" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q147" s="8" t="inlineStr">
         <is>
           <t>dshout44@unc.edu</t>
@@ -15806,6 +16273,9 @@
           <t>276101215</t>
         </is>
       </c>
+      <c r="P148" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q148" s="8" t="inlineStr">
         <is>
           <t>lwerrett45@hubpages.com</t>
@@ -15910,6 +16380,9 @@
           <t>192626958</t>
         </is>
       </c>
+      <c r="P149" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q149" s="8" t="inlineStr">
         <is>
           <t>eroutledge46@posterous.com</t>
@@ -16014,6 +16487,9 @@
           <t>078101833</t>
         </is>
       </c>
+      <c r="P150" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q150" s="8" t="inlineStr">
         <is>
           <t>bgoldstein47@paginegialle.it</t>
@@ -16118,6 +16594,9 @@
           <t>074142788</t>
         </is>
       </c>
+      <c r="P151" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q151" s="8" t="inlineStr">
         <is>
           <t>hradford48@slashdot.org</t>
@@ -16222,6 +16701,9 @@
           <t>918765016</t>
         </is>
       </c>
+      <c r="P152" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q152" s="8" t="inlineStr">
         <is>
           <t>tmacshirrie49@typepad.com</t>
@@ -16326,6 +16808,9 @@
           <t>539408579</t>
         </is>
       </c>
+      <c r="P153" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q153" s="8" t="inlineStr">
         <is>
           <t>pbaldock4a@freewebs.com</t>
@@ -16430,6 +16915,9 @@
           <t>260389241</t>
         </is>
       </c>
+      <c r="P154" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q154" s="8" t="inlineStr">
         <is>
           <t>kstivey4b@linkedin.com</t>
@@ -16534,6 +17022,9 @@
           <t>338056842</t>
         </is>
       </c>
+      <c r="P155" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q155" s="8" t="inlineStr">
         <is>
           <t>bcrucitti4c@cyberchimps.com</t>
@@ -16638,6 +17129,9 @@
           <t>302412142</t>
         </is>
       </c>
+      <c r="P156" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q156" s="8" t="inlineStr">
         <is>
           <t>dhoutby4d@simplemachines.org</t>
@@ -16742,6 +17236,9 @@
           <t>410950427</t>
         </is>
       </c>
+      <c r="P157" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q157" s="8" t="inlineStr">
         <is>
           <t>wmenico4e@opera.com</t>
@@ -16846,6 +17343,9 @@
           <t>560146777</t>
         </is>
       </c>
+      <c r="P158" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q158" s="8" t="inlineStr">
         <is>
           <t>kgirardeau4f@loc.gov</t>
@@ -16950,6 +17450,9 @@
           <t>060486239</t>
         </is>
       </c>
+      <c r="P159" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q159" s="8" t="inlineStr">
         <is>
           <t>hguerreau4g@hubpages.com</t>
@@ -17054,6 +17557,9 @@
           <t>011800102</t>
         </is>
       </c>
+      <c r="P160" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q160" s="8" t="inlineStr">
         <is>
           <t>ischuck4h@bloglovin.com</t>
@@ -17158,6 +17664,9 @@
           <t>560660873</t>
         </is>
       </c>
+      <c r="P161" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q161" s="8" t="inlineStr">
         <is>
           <t>csegebrecht4i@dot.gov</t>
@@ -17262,6 +17771,9 @@
           <t>829055516</t>
         </is>
       </c>
+      <c r="P162" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q162" s="8" t="inlineStr">
         <is>
           <t>mjeenes4j@ebay.co.uk</t>
@@ -17366,6 +17878,9 @@
           <t>610661716</t>
         </is>
       </c>
+      <c r="P163" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q163" s="8" t="inlineStr">
         <is>
           <t>tmerkle4k@rakuten.co.jp</t>
@@ -17470,6 +17985,9 @@
           <t>572508115</t>
         </is>
       </c>
+      <c r="P164" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q164" s="8" t="inlineStr">
         <is>
           <t>ebarok4l@foxnews.com</t>
@@ -17574,6 +18092,9 @@
           <t>669880322</t>
         </is>
       </c>
+      <c r="P165" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q165" s="8" t="inlineStr">
         <is>
           <t>fodyvoy4m@theglobeandmail.com</t>
@@ -17678,6 +18199,9 @@
           <t>643683286</t>
         </is>
       </c>
+      <c r="P166" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q166" s="8" t="inlineStr">
         <is>
           <t>ffarington4n@goo.ne.jp</t>
@@ -17782,6 +18306,9 @@
           <t>102860644</t>
         </is>
       </c>
+      <c r="P167" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q167" s="8" t="inlineStr">
         <is>
           <t>tferia4o@smugmug.com</t>
@@ -17886,6 +18413,9 @@
           <t>528678518</t>
         </is>
       </c>
+      <c r="P168" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q168" s="8" t="inlineStr">
         <is>
           <t>yflacke4p@google.es</t>
@@ -17990,6 +18520,9 @@
           <t>625752476</t>
         </is>
       </c>
+      <c r="P169" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q169" s="8" t="inlineStr">
         <is>
           <t>hkilty4q@creativecommons.org</t>
@@ -18094,6 +18627,9 @@
           <t>433956941</t>
         </is>
       </c>
+      <c r="P170" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q170" s="8" t="inlineStr">
         <is>
           <t>edawbury4r@admin.ch</t>
@@ -18198,6 +18734,9 @@
           <t>683414157</t>
         </is>
       </c>
+      <c r="P171" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q171" s="8" t="inlineStr">
         <is>
           <t>lbrittles4s@flavors.me</t>
@@ -18302,6 +18841,9 @@
           <t>442072285</t>
         </is>
       </c>
+      <c r="P172" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q172" s="8" t="inlineStr">
         <is>
           <t>rorviss4t@google.com.br</t>
@@ -18406,6 +18948,9 @@
           <t>545550519</t>
         </is>
       </c>
+      <c r="P173" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q173" s="8" t="inlineStr">
         <is>
           <t>rpeperell4u@people.com.cn</t>
@@ -18510,6 +19055,9 @@
           <t>669616424</t>
         </is>
       </c>
+      <c r="P174" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q174" s="8" t="inlineStr">
         <is>
           <t>mmowson4v@cloudflare.com</t>
@@ -18614,6 +19162,9 @@
           <t>139588996</t>
         </is>
       </c>
+      <c r="P175" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q175" s="8" t="inlineStr">
         <is>
           <t>damesbury4w@wordpress.org</t>
@@ -18718,6 +19269,9 @@
           <t>175855830</t>
         </is>
       </c>
+      <c r="P176" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q176" s="8" t="inlineStr">
         <is>
           <t>tconnachan4x@jugem.jp</t>
@@ -18822,6 +19376,9 @@
           <t>547612095</t>
         </is>
       </c>
+      <c r="P177" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q177" s="8" t="inlineStr">
         <is>
           <t>anapoleon4y@cloudflare.com</t>
@@ -18926,6 +19483,9 @@
           <t>797301945</t>
         </is>
       </c>
+      <c r="P178" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q178" s="8" t="inlineStr">
         <is>
           <t>grozec4z@tinypic.com</t>
@@ -19030,6 +19590,9 @@
           <t>277298651</t>
         </is>
       </c>
+      <c r="P179" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q179" s="8" t="inlineStr">
         <is>
           <t>ghadye50@simplemachines.org</t>
@@ -19134,6 +19697,9 @@
           <t>018113399</t>
         </is>
       </c>
+      <c r="P180" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q180" s="8" t="inlineStr">
         <is>
           <t>tsimoneau51@engadget.com</t>
@@ -19238,6 +19804,9 @@
           <t>633012703</t>
         </is>
       </c>
+      <c r="P181" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q181" s="8" t="inlineStr">
         <is>
           <t>vglazebrook52@cloudflare.com</t>
@@ -19342,6 +19911,9 @@
           <t>498995742</t>
         </is>
       </c>
+      <c r="P182" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q182" s="8" t="inlineStr">
         <is>
           <t>dvagg53@thetimes.co.uk</t>
@@ -19447,6 +20019,9 @@
           <t>652969092</t>
         </is>
       </c>
+      <c r="P183" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q183" s="8" t="inlineStr">
         <is>
           <t>lantonijevic54@cloudflare.com</t>
@@ -19551,6 +20126,9 @@
           <t>204615711</t>
         </is>
       </c>
+      <c r="P184" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q184" s="8" t="inlineStr">
         <is>
           <t>pbythway55@pen.io</t>
@@ -19655,6 +20233,9 @@
           <t>019947807</t>
         </is>
       </c>
+      <c r="P185" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q185" s="8" t="inlineStr">
         <is>
           <t>dkesby56@unesco.org</t>
@@ -19759,6 +20340,9 @@
           <t>473168241</t>
         </is>
       </c>
+      <c r="P186" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q186" s="8" t="inlineStr">
         <is>
           <t>ggriffoen57@edublogs.org</t>
@@ -19863,6 +20447,9 @@
           <t>984848348</t>
         </is>
       </c>
+      <c r="P187" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q187" s="8" t="inlineStr">
         <is>
           <t>rbukowski58@github.com</t>
@@ -19967,6 +20554,9 @@
           <t>226198729</t>
         </is>
       </c>
+      <c r="P188" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q188" s="8" t="inlineStr">
         <is>
           <t>lstutt59@dot.gov</t>
@@ -20071,6 +20661,9 @@
           <t>443632518</t>
         </is>
       </c>
+      <c r="P189" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q189" s="8" t="inlineStr">
         <is>
           <t>flaffoleylane5a@ox.ac.uk</t>
@@ -20175,6 +20768,9 @@
           <t>248015122</t>
         </is>
       </c>
+      <c r="P190" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q190" s="8" t="inlineStr">
         <is>
           <t>kschulke5b@gov.uk</t>
@@ -20279,6 +20875,9 @@
           <t>148973054</t>
         </is>
       </c>
+      <c r="P191" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q191" s="8" t="inlineStr">
         <is>
           <t>ewiddowfield5c@sohu.com</t>
@@ -20383,6 +20982,9 @@
           <t>833556354</t>
         </is>
       </c>
+      <c r="P192" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q192" s="8" t="inlineStr">
         <is>
           <t>lgeany5d@state.tx.us</t>
@@ -20487,6 +21089,9 @@
           <t>966663376</t>
         </is>
       </c>
+      <c r="P193" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q193" s="8" t="inlineStr">
         <is>
           <t>mgaskarth5e@weibo.com</t>
@@ -20591,6 +21196,9 @@
           <t>568000035</t>
         </is>
       </c>
+      <c r="P194" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q194" s="8" t="inlineStr">
         <is>
           <t>dblankman5f@hubpages.com</t>
@@ -20695,6 +21303,9 @@
           <t>892811608</t>
         </is>
       </c>
+      <c r="P195" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q195" s="8" t="inlineStr">
         <is>
           <t>alawman5g@hexun.com</t>
@@ -20799,6 +21410,9 @@
           <t>965666194</t>
         </is>
       </c>
+      <c r="P196" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q196" s="8" t="inlineStr">
         <is>
           <t>vpoland5h@issuu.com</t>
@@ -20903,6 +21517,9 @@
           <t>136307563</t>
         </is>
       </c>
+      <c r="P197" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q197" s="8" t="inlineStr">
         <is>
           <t>kibbitt5i@zdnet.com</t>
@@ -21007,6 +21624,9 @@
           <t>910527019</t>
         </is>
       </c>
+      <c r="P198" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q198" s="8" t="inlineStr">
         <is>
           <t>dfletcher5j@cocolog-nifty.com</t>
@@ -21111,6 +21731,9 @@
           <t>109723371</t>
         </is>
       </c>
+      <c r="P199" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q199" s="8" t="inlineStr">
         <is>
           <t>hbakeup5k@comcast.net</t>
@@ -21215,6 +21838,9 @@
           <t>857335505</t>
         </is>
       </c>
+      <c r="P200" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q200" s="8" t="inlineStr">
         <is>
           <t>yduplantier5l@weibo.com</t>
@@ -21319,6 +21945,9 @@
           <t>086502128</t>
         </is>
       </c>
+      <c r="P201" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q201" s="8" t="inlineStr">
         <is>
           <t>acasaro5m@naver.com</t>
@@ -21423,6 +22052,9 @@
           <t>684769658</t>
         </is>
       </c>
+      <c r="P202" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q202" s="8" t="inlineStr">
         <is>
           <t>amcevon5n@issuu.com</t>
@@ -21527,6 +22159,9 @@
           <t>927282779</t>
         </is>
       </c>
+      <c r="P203" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q203" s="8" t="inlineStr">
         <is>
           <t>ggrimstead5o@1688.com</t>
@@ -21631,6 +22266,9 @@
           <t>549597062</t>
         </is>
       </c>
+      <c r="P204" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q204" s="8" t="inlineStr">
         <is>
           <t>cdowbiggin5p@arstechnica.com</t>
@@ -21735,6 +22373,9 @@
           <t>811976917</t>
         </is>
       </c>
+      <c r="P205" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q205" s="8" t="inlineStr">
         <is>
           <t>jtansill5q@webs.com</t>
@@ -21839,6 +22480,9 @@
           <t>119744786</t>
         </is>
       </c>
+      <c r="P206" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q206" s="8" t="inlineStr">
         <is>
           <t>kciabatteri5r@skyrock.com</t>
@@ -21943,6 +22587,9 @@
           <t>679936122</t>
         </is>
       </c>
+      <c r="P207" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q207" s="8" t="inlineStr">
         <is>
           <t>brubinowitsch5s@wikispaces.com</t>
@@ -22047,6 +22694,9 @@
           <t>205205202</t>
         </is>
       </c>
+      <c r="P208" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q208" s="8" t="inlineStr">
         <is>
           <t>dspohr5t@godaddy.com</t>
@@ -22151,6 +22801,9 @@
           <t>005084228</t>
         </is>
       </c>
+      <c r="P209" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q209" s="8" t="inlineStr">
         <is>
           <t>ntaffrey5u@nature.com</t>
@@ -22255,6 +22908,9 @@
           <t>469174393</t>
         </is>
       </c>
+      <c r="P210" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q210" s="8" t="inlineStr">
         <is>
           <t>aleming5v@hatena.ne.jp</t>
@@ -22359,6 +23015,9 @@
           <t>919877810</t>
         </is>
       </c>
+      <c r="P211" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q211" s="8" t="inlineStr">
         <is>
           <t>jgeer5w@youku.com</t>
@@ -22463,6 +23122,9 @@
           <t>617210049</t>
         </is>
       </c>
+      <c r="P212" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q212" s="8" t="inlineStr">
         <is>
           <t>lcurtin5x@craigslist.org</t>
@@ -22567,6 +23229,9 @@
           <t>772509285</t>
         </is>
       </c>
+      <c r="P213" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q213" s="8" t="inlineStr">
         <is>
           <t>acarbonell5y@istockphoto.com</t>
@@ -22671,6 +23336,9 @@
           <t>629462092</t>
         </is>
       </c>
+      <c r="P214" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q214" s="8" t="inlineStr">
         <is>
           <t>schilds5z@deliciousdays.com</t>
@@ -22775,6 +23443,9 @@
           <t>893364728</t>
         </is>
       </c>
+      <c r="P215" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q215" s="8" t="inlineStr">
         <is>
           <t>cgoosnell60@edublogs.org</t>
@@ -22879,6 +23550,9 @@
           <t>452458778</t>
         </is>
       </c>
+      <c r="P216" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q216" s="8" t="inlineStr">
         <is>
           <t>egynni61@hostgator.com</t>
@@ -22983,6 +23657,9 @@
           <t>195859507</t>
         </is>
       </c>
+      <c r="P217" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q217" s="8" t="inlineStr">
         <is>
           <t>oskeleton62@ovh.net</t>
@@ -23087,6 +23764,9 @@
           <t>891406742</t>
         </is>
       </c>
+      <c r="P218" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q218" s="8" t="inlineStr">
         <is>
           <t>jwhetson63@reference.com</t>
@@ -23191,6 +23871,9 @@
           <t>061966615</t>
         </is>
       </c>
+      <c r="P219" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q219" s="8" t="inlineStr">
         <is>
           <t>wwitton64@free.fr</t>
@@ -23295,6 +23978,9 @@
           <t>248523095</t>
         </is>
       </c>
+      <c r="P220" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q220" s="8" t="inlineStr">
         <is>
           <t>dpayle65@fastcompany.com</t>
@@ -23399,6 +24085,9 @@
           <t>717203305</t>
         </is>
       </c>
+      <c r="P221" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q221" s="8" t="inlineStr">
         <is>
           <t>hfranciskiewicz66@ocn.ne.jp</t>
@@ -23503,6 +24192,9 @@
           <t>614398935</t>
         </is>
       </c>
+      <c r="P222" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q222" s="8" t="inlineStr">
         <is>
           <t>mcapun67@ehow.com</t>
@@ -23607,6 +24299,9 @@
           <t>678550787</t>
         </is>
       </c>
+      <c r="P223" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q223" s="8" t="inlineStr">
         <is>
           <t>lhargey68@tmall.com</t>
@@ -23711,6 +24406,9 @@
           <t>607730771</t>
         </is>
       </c>
+      <c r="P224" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q224" s="8" t="inlineStr">
         <is>
           <t>smawhinney69@amazonaws.com</t>
@@ -23815,6 +24513,9 @@
           <t>760929807</t>
         </is>
       </c>
+      <c r="P225" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q225" s="8" t="inlineStr">
         <is>
           <t>mdome6a@qq.com</t>
@@ -23919,6 +24620,9 @@
           <t>398779534</t>
         </is>
       </c>
+      <c r="P226" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q226" s="8" t="inlineStr">
         <is>
           <t>kmayger6b@gizmodo.com</t>
@@ -24023,6 +24727,9 @@
           <t>025118818</t>
         </is>
       </c>
+      <c r="P227" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q227" s="8" t="inlineStr">
         <is>
           <t>zbotcherby6c@dell.com</t>
@@ -24127,6 +24834,9 @@
           <t>026633823</t>
         </is>
       </c>
+      <c r="P228" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q228" s="8" t="inlineStr">
         <is>
           <t>nbenedicte6d@example.com</t>
@@ -24231,6 +24941,9 @@
           <t>280906974</t>
         </is>
       </c>
+      <c r="P229" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q229" s="8" t="inlineStr">
         <is>
           <t>kthying6e@godaddy.com</t>
@@ -24335,6 +25048,9 @@
           <t>153495304</t>
         </is>
       </c>
+      <c r="P230" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q230" s="8" t="inlineStr">
         <is>
           <t>adurrand6f@gravatar.com</t>
@@ -24439,6 +25155,9 @@
           <t>368521309</t>
         </is>
       </c>
+      <c r="P231" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q231" s="8" t="inlineStr">
         <is>
           <t>sbodley6g@cornell.edu</t>
@@ -24543,6 +25262,9 @@
           <t>443615485</t>
         </is>
       </c>
+      <c r="P232" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q232" s="8" t="inlineStr">
         <is>
           <t>rwolfit6h@cloudflare.com</t>
@@ -24647,6 +25369,9 @@
           <t>619996999</t>
         </is>
       </c>
+      <c r="P233" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q233" s="8" t="inlineStr">
         <is>
           <t>hnanelli6i@sourceforge.net</t>
@@ -24751,6 +25476,9 @@
           <t>160587799</t>
         </is>
       </c>
+      <c r="P234" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q234" s="8" t="inlineStr">
         <is>
           <t>bkohring6j@csmonitor.com</t>
@@ -24855,6 +25583,9 @@
           <t>899496563</t>
         </is>
       </c>
+      <c r="P235" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q235" s="8" t="inlineStr">
         <is>
           <t>hshilling6k@etsy.com</t>
@@ -24959,6 +25690,9 @@
           <t>296665921</t>
         </is>
       </c>
+      <c r="P236" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q236" s="8" t="inlineStr">
         <is>
           <t>bpeer6l@vimeo.com</t>
@@ -25063,6 +25797,9 @@
           <t>895195840</t>
         </is>
       </c>
+      <c r="P237" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q237" s="8" t="inlineStr">
         <is>
           <t>pogrady6m@blogs.com</t>
@@ -25167,6 +25904,9 @@
           <t>995799991</t>
         </is>
       </c>
+      <c r="P238" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q238" s="8" t="inlineStr">
         <is>
           <t>tgreystock6n@vimeo.com</t>
@@ -25271,6 +26011,9 @@
           <t>303847075</t>
         </is>
       </c>
+      <c r="P239" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q239" s="8" t="inlineStr">
         <is>
           <t>clandeg6o@economist.com</t>
@@ -25375,6 +26118,9 @@
           <t>491267756</t>
         </is>
       </c>
+      <c r="P240" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q240" s="8" t="inlineStr">
         <is>
           <t>aprestney6p@rambler.ru</t>
@@ -25480,6 +26226,9 @@
           <t>877781006</t>
         </is>
       </c>
+      <c r="P241" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q241" s="8" t="inlineStr">
         <is>
           <t>cscola6q@house.gov</t>
@@ -25584,6 +26333,9 @@
           <t>823873809</t>
         </is>
       </c>
+      <c r="P242" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q242" s="8" t="inlineStr">
         <is>
           <t>mbaggott6r@flavors.me</t>
@@ -25688,6 +26440,9 @@
           <t>512443385</t>
         </is>
       </c>
+      <c r="P243" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q243" s="8" t="inlineStr">
         <is>
           <t>fbazoche6s@paginegialle.it</t>
@@ -25792,6 +26547,9 @@
           <t>308728464</t>
         </is>
       </c>
+      <c r="P244" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q244" s="8" t="inlineStr">
         <is>
           <t>aheggadon6t@delicious.com</t>
@@ -25896,6 +26654,9 @@
           <t>926335481</t>
         </is>
       </c>
+      <c r="P245" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q245" s="8" t="inlineStr">
         <is>
           <t>shazeldine6u@prlog.org</t>
@@ -26000,6 +26761,9 @@
           <t>093472257</t>
         </is>
       </c>
+      <c r="P246" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q246" s="8" t="inlineStr">
         <is>
           <t>rrolfs6v@fda.gov</t>
@@ -26104,6 +26868,9 @@
           <t>707866466</t>
         </is>
       </c>
+      <c r="P247" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q247" s="8" t="inlineStr">
         <is>
           <t>warmand6w@deviantart.com</t>
@@ -26208,6 +26975,9 @@
           <t>519119283</t>
         </is>
       </c>
+      <c r="P248" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q248" s="8" t="inlineStr">
         <is>
           <t>bkorneichik6x@smh.com.au</t>
@@ -26312,6 +27082,9 @@
           <t>067902642</t>
         </is>
       </c>
+      <c r="P249" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q249" s="8" t="inlineStr">
         <is>
           <t>ideakan6y@purevolume.com</t>
@@ -26416,6 +27189,9 @@
           <t>367441196</t>
         </is>
       </c>
+      <c r="P250" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q250" s="8" t="inlineStr">
         <is>
           <t>msherrum6z@linkedin.com</t>
@@ -26520,6 +27296,9 @@
           <t>129898517</t>
         </is>
       </c>
+      <c r="P251" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q251" s="8" t="inlineStr">
         <is>
           <t>kgrimbaldeston70@odnoklassniki.ru</t>
@@ -26624,6 +27403,9 @@
           <t>260167350</t>
         </is>
       </c>
+      <c r="P252" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q252" s="8" t="inlineStr">
         <is>
           <t>tbogaert71@yahoo.co.jp</t>
@@ -26728,6 +27510,9 @@
           <t>358201306</t>
         </is>
       </c>
+      <c r="P253" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q253" s="8" t="inlineStr">
         <is>
           <t>tonion72@boston.com</t>
@@ -26832,6 +27617,9 @@
           <t>676970197</t>
         </is>
       </c>
+      <c r="P254" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q254" s="8" t="inlineStr">
         <is>
           <t>mgratrix73@loc.gov</t>
@@ -26936,6 +27724,9 @@
           <t>118286027</t>
         </is>
       </c>
+      <c r="P255" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q255" s="8" t="inlineStr">
         <is>
           <t>gdowdam74@furl.net</t>
@@ -27040,6 +27831,9 @@
           <t>982869814</t>
         </is>
       </c>
+      <c r="P256" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q256" s="8" t="inlineStr">
         <is>
           <t>cvigers75@patch.com</t>
@@ -27144,6 +27938,9 @@
           <t>275446976</t>
         </is>
       </c>
+      <c r="P257" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q257" s="8" t="inlineStr">
         <is>
           <t>ecalf76@yolasite.com</t>
@@ -27248,6 +28045,9 @@
           <t>558909318</t>
         </is>
       </c>
+      <c r="P258" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q258" s="8" t="inlineStr">
         <is>
           <t>hfilipponi77@nhs.uk</t>
@@ -27352,6 +28152,9 @@
           <t>340802054</t>
         </is>
       </c>
+      <c r="P259" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q259" s="8" t="inlineStr">
         <is>
           <t>aantonijevic78@nature.com</t>
@@ -27456,6 +28259,9 @@
           <t>948833571</t>
         </is>
       </c>
+      <c r="P260" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q260" s="8" t="inlineStr">
         <is>
           <t>cbonnin79@cpanel.net</t>
@@ -27560,6 +28366,9 @@
           <t>994388709</t>
         </is>
       </c>
+      <c r="P261" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q261" s="8" t="inlineStr">
         <is>
           <t>gwell7a@twitpic.com</t>
@@ -27664,6 +28473,9 @@
           <t>233798295</t>
         </is>
       </c>
+      <c r="P262" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q262" s="8" t="inlineStr">
         <is>
           <t>zsaphir7b@fc2.com</t>
@@ -27768,6 +28580,9 @@
           <t>100870336</t>
         </is>
       </c>
+      <c r="P263" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q263" s="8" t="inlineStr">
         <is>
           <t>pboshers7c@com.com</t>
@@ -27872,6 +28687,9 @@
           <t>247255001</t>
         </is>
       </c>
+      <c r="P264" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q264" s="8" t="inlineStr">
         <is>
           <t>tvanschafflaer7d@usatoday.com</t>
@@ -27976,6 +28794,9 @@
           <t>776062961</t>
         </is>
       </c>
+      <c r="P265" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q265" s="8" t="inlineStr">
         <is>
           <t>idionisetti7e@toplist.cz</t>
@@ -28080,6 +28901,9 @@
           <t>661125280</t>
         </is>
       </c>
+      <c r="P266" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q266" s="8" t="inlineStr">
         <is>
           <t>lgaroghan7f@imageshack.us</t>
@@ -28184,6 +29008,9 @@
           <t>214808877</t>
         </is>
       </c>
+      <c r="P267" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q267" s="8" t="inlineStr">
         <is>
           <t>khrishanok7g@arstechnica.com</t>
@@ -28289,6 +29116,9 @@
           <t>675527982</t>
         </is>
       </c>
+      <c r="P268" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q268" s="8" t="inlineStr">
         <is>
           <t>lhughes7h@goo.gl</t>
@@ -28393,6 +29223,9 @@
           <t>742139704</t>
         </is>
       </c>
+      <c r="P269" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q269" s="8" t="inlineStr">
         <is>
           <t>martrick7i@jugem.jp</t>
@@ -28497,6 +29330,9 @@
           <t>019727908</t>
         </is>
       </c>
+      <c r="P270" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q270" s="8" t="inlineStr">
         <is>
           <t>slavrinov7j@linkedin.com</t>
@@ -28601,6 +29437,9 @@
           <t>862388726</t>
         </is>
       </c>
+      <c r="P271" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q271" s="8" t="inlineStr">
         <is>
           <t>rhodgins7k@elpais.com</t>
@@ -28705,6 +29544,9 @@
           <t>317398081</t>
         </is>
       </c>
+      <c r="P272" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q272" s="8" t="inlineStr">
         <is>
           <t>wreddan7l@bbc.co.uk</t>
@@ -28809,6 +29651,9 @@
           <t>846405018</t>
         </is>
       </c>
+      <c r="P273" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q273" s="8" t="inlineStr">
         <is>
           <t>ktinmouth7m@imdb.com</t>
@@ -28913,6 +29758,9 @@
           <t>037220286</t>
         </is>
       </c>
+      <c r="P274" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q274" s="8" t="inlineStr">
         <is>
           <t>vbrodbin7n@pagesperso-orange.fr</t>
@@ -29017,6 +29865,9 @@
           <t>416442158</t>
         </is>
       </c>
+      <c r="P275" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q275" s="8" t="inlineStr">
         <is>
           <t>lboichat7o@slate.com</t>
@@ -29121,6 +29972,9 @@
           <t>520284530</t>
         </is>
       </c>
+      <c r="P276" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q276" s="8" t="inlineStr">
         <is>
           <t>mbrunker7p@joomla.org</t>
@@ -29225,6 +30079,9 @@
           <t>872429385</t>
         </is>
       </c>
+      <c r="P277" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q277" s="8" t="inlineStr">
         <is>
           <t>gscandroot7q@jigsy.com</t>
@@ -29329,6 +30186,9 @@
           <t>701420901</t>
         </is>
       </c>
+      <c r="P278" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q278" s="8" t="inlineStr">
         <is>
           <t>acrooke7r@imgur.com</t>
@@ -29433,6 +30293,9 @@
           <t>785679955</t>
         </is>
       </c>
+      <c r="P279" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q279" s="8" t="inlineStr">
         <is>
           <t>jjeratt7s@wordpress.org</t>
@@ -29537,6 +30400,9 @@
           <t>737100421</t>
         </is>
       </c>
+      <c r="P280" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q280" s="8" t="inlineStr">
         <is>
           <t>bsainsbury7t@ustream.tv</t>
@@ -29641,6 +30507,9 @@
           <t>402404437</t>
         </is>
       </c>
+      <c r="P281" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q281" s="8" t="inlineStr">
         <is>
           <t>owhitley7u@spotify.com</t>
@@ -29745,6 +30614,9 @@
           <t>673551118</t>
         </is>
       </c>
+      <c r="P282" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q282" s="8" t="inlineStr">
         <is>
           <t>taleswell7v@washingtonpost.com</t>
@@ -29849,6 +30721,9 @@
           <t>286530847</t>
         </is>
       </c>
+      <c r="P283" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q283" s="8" t="inlineStr">
         <is>
           <t>nblasing7w@nbcnews.com</t>
@@ -29953,6 +30828,9 @@
           <t>935824777</t>
         </is>
       </c>
+      <c r="P284" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q284" s="8" t="inlineStr">
         <is>
           <t>vchalker7x@go.com</t>
@@ -30057,6 +30935,9 @@
           <t>822835133</t>
         </is>
       </c>
+      <c r="P285" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q285" s="8" t="inlineStr">
         <is>
           <t>rklimes7y@miibeian.gov.cn</t>
@@ -30161,6 +31042,9 @@
           <t>152412632</t>
         </is>
       </c>
+      <c r="P286" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q286" s="8" t="inlineStr">
         <is>
           <t>vmccaster7z@microsoft.com</t>
@@ -30265,6 +31149,9 @@
           <t>683198854</t>
         </is>
       </c>
+      <c r="P287" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q287" s="8" t="inlineStr">
         <is>
           <t>jgimeno80@reference.com</t>
@@ -30369,6 +31256,9 @@
           <t>044390914</t>
         </is>
       </c>
+      <c r="P288" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q288" s="8" t="inlineStr">
         <is>
           <t>melderfield81@smh.com.au</t>
@@ -30473,6 +31363,9 @@
           <t>396852189</t>
         </is>
       </c>
+      <c r="P289" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q289" s="8" t="inlineStr">
         <is>
           <t>kdregan82@ucla.edu</t>
@@ -30577,6 +31470,9 @@
           <t>425710352</t>
         </is>
       </c>
+      <c r="P290" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q290" s="8" t="inlineStr">
         <is>
           <t>ascoggan83@google.co.uk</t>
@@ -30681,6 +31577,9 @@
           <t>336954307</t>
         </is>
       </c>
+      <c r="P291" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q291" s="8" t="inlineStr">
         <is>
           <t>ltolchar84@gmpg.org</t>
@@ -30785,6 +31684,9 @@
           <t>327711559</t>
         </is>
       </c>
+      <c r="P292" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q292" s="8" t="inlineStr">
         <is>
           <t>vmacfadyen85@parallels.com</t>
@@ -30889,6 +31791,9 @@
           <t>748881782</t>
         </is>
       </c>
+      <c r="P293" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q293" s="8" t="inlineStr">
         <is>
           <t>mcapelin86@time.com</t>
@@ -30993,6 +31898,9 @@
           <t>625347952</t>
         </is>
       </c>
+      <c r="P294" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q294" s="8" t="inlineStr">
         <is>
           <t>bloseby87@msn.com</t>
@@ -31097,6 +32005,9 @@
           <t>722817590</t>
         </is>
       </c>
+      <c r="P295" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q295" s="8" t="inlineStr">
         <is>
           <t>kughetti88@spotify.com</t>
@@ -31201,6 +32112,9 @@
           <t>875679563</t>
         </is>
       </c>
+      <c r="P296" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q296" s="8" t="inlineStr">
         <is>
           <t>jdraayer89@quantcast.com</t>
@@ -31305,6 +32219,9 @@
           <t>174963970</t>
         </is>
       </c>
+      <c r="P297" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="Q297" s="8" t="inlineStr">
         <is>
           <t>ablasoni8a@google.ru</t>
@@ -31408,6 +32325,9 @@
         <is>
           <t>736041461</t>
         </is>
+      </c>
+      <c r="P298" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="Q298" s="8" t="inlineStr">
         <is>
@@ -31443,5 +32363,8 @@
     <mergeCell ref="L1:P1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>